--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WC_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WC_OPEN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -900,7 +900,7 @@
     <t>eindJaar</t>
   </si>
   <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (ExponentiÃ«le functies) + Vaardigheden</t>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
   </si>
   <si>
     <t>vandaag</t>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>mavo?</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor het SE. Stof uit uit voorgaande leerjaren wordt bekend verondersteld en kan teruggevraagd worden.</t>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2361,7 +2364,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>7</v>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2420,7 +2423,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2436,7 +2439,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2471,7 +2474,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2516,7 +2519,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2532,7 +2535,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2567,7 +2570,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2612,7 +2615,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2650,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2709,7 +2712,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -2725,7 +2728,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -2734,7 +2737,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2">
         <v>805</v>
@@ -2747,7 +2750,7 @@
         <v>71</v>
       </c>
       <c r="I10" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>7</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2806,7 +2809,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -2844,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="I11" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>7</v>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2903,7 +2906,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4488,7 +4491,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4661,7 +4664,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4706,7 +4709,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4757,7 +4760,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4802,7 +4805,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4818,7 +4821,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4853,7 +4856,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4898,7 +4901,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4914,7 +4917,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4950,7 +4953,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4995,7 +4998,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -5011,7 +5014,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -5020,7 +5023,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5092,7 +5095,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -5108,7 +5111,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5144,7 +5147,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5189,7 +5192,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -5279,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5410,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5427,7 +5430,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5472,7 +5475,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -5488,7 +5491,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -5500,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5519,10 +5522,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5594,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -5610,13 +5613,13 @@
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5688,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -5707,10 +5710,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -5782,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -5797,7 +5800,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -5842,7 +5845,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -5858,7 +5861,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -5870,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -5890,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -6836,7 +6839,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -7336,7 +7339,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7708,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -7725,7 +7728,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7770,7 +7773,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -7786,7 +7789,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -7798,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -7817,10 +7820,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7892,7 +7895,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -7914,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7986,7 +7989,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -8005,10 +8008,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8080,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -8095,7 +8098,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -8140,7 +8143,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -8156,7 +8159,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -8168,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -8188,7 +8191,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -8301,7 +8304,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -8425,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -8442,10 +8445,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -8517,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -8531,13 +8534,13 @@
         <v>8</v>
       </c>
       <c r="N31" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -8609,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -8626,10 +8629,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -9666,7 +9669,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10693,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -10710,10 +10713,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -10785,7 +10788,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -10802,10 +10805,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -10877,7 +10880,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -10894,10 +10897,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WC_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WC_OPEN.xlsx
@@ -885,6 +885,9 @@
     <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -925,9 +928,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor het SE. Stof uit uit voorgaande leerjaren wordt bekend verondersteld en kan teruggevraagd worden.</t>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2444,7 +2444,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2540,7 +2540,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>213</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2636,7 +2636,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2733,11 +2733,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>805</v>
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2844,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2927,7 +2927,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4730,7 +4730,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -4839,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4922,7 +4922,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5019,11 +5019,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
@@ -5033,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5116,7 +5116,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5130,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5213,7 +5213,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -7070,7 +7070,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>119</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7335,11 +7335,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>120</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9665,11 +9665,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
